--- a/data/thatch.xlsx
+++ b/data/thatch.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5c601ea6bab069a/Desktop/GitHub/seniot-thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_3F4EEA26296B741647A29B1D4CF5AC06ADF131DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B254E588-4560-454D-8C9E-99AF159A661F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_3F4EEA26296B741647A29B1D4CF5AC06ADF131DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB9D0C09-A56D-48E9-90E4-86CF71CC2F0C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="native_plants_begin_0" sheetId="2" r:id="rId1"/>
-    <sheet name="nonnative_plants_begin_1" sheetId="3" r:id="rId2"/>
+    <sheet name="native_plants" sheetId="2" r:id="rId1"/>
+    <sheet name="nonnative_plants" sheetId="3" r:id="rId2"/>
     <sheet name="unknown_plants_begin_2" sheetId="4" r:id="rId3"/>
     <sheet name="other_cover_repeat_begin_3" sheetId="5" r:id="rId4"/>
     <sheet name="thatch_percent_cover" sheetId="6" r:id="rId5"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="449">
   <si>
     <t>ObjectID</t>
   </si>
@@ -587,9 +587,6 @@
     <t>Non_Native Species</t>
   </si>
   <si>
-    <t>Unlisted Non-Native Species</t>
-  </si>
-  <si>
     <t>Non-Native Species Percent Cover</t>
   </si>
   <si>
@@ -720,9 +717,6 @@
   </si>
   <si>
     <t>1e851956-9c74-48c1-80c6-8691159e70ca</t>
-  </si>
-  <si>
-    <t>unlisted</t>
   </si>
   <si>
     <t>Erharta erecta</t>
@@ -1417,10 +1411,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,6 +1429,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1725,7 +1722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5071,13 +5070,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5094,3620 +5098,3614 @@
         <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>25282</v>
       </c>
       <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
         <v>189</v>
       </c>
-      <c r="C2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G2" s="1">
         <v>45504.0175286921</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
         <v>45504.0175286921</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25283</v>
       </c>
       <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
         <v>191</v>
       </c>
-      <c r="C3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="1">
         <v>45504.0175286921</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
         <v>45504.0175286921</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25284</v>
       </c>
       <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
         <v>193</v>
       </c>
-      <c r="C4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="1">
         <v>45504.0175286921</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
         <v>45504.0175286921</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>26215</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5">
+        <v>191</v>
+      </c>
+      <c r="D5">
         <v>95</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
         <v>45526.013512939797</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
         <v>45526.013512939797</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26216</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6">
+        <v>193</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
         <v>45526.013512939797</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
         <v>45526.013512939797</v>
       </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>26217</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7">
+        <v>189</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <v>45526.013512939797</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
         <v>45526.013512939797</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25285</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8">
+        <v>189</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="1">
+      <c r="G8" s="1">
         <v>45504.017551967598</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
         <v>45504.017551967598</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25286</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9">
+        <v>193</v>
+      </c>
+      <c r="D9">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G9" s="1">
         <v>45504.017551967598</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
         <v>45504.017551967598</v>
       </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25287</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10">
+        <v>189</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
         <v>45504.017575763901</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1">
         <v>45504.017575763901</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>25288</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11">
+        <v>193</v>
+      </c>
+      <c r="D11">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <v>45504.017575763901</v>
       </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
         <v>45504.017575763901</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>25289</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12">
+        <v>191</v>
+      </c>
+      <c r="D12">
         <v>83</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <v>45504.017575763901</v>
       </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1">
         <v>45504.017575763901</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>26199</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13">
+        <v>193</v>
+      </c>
+      <c r="D13">
         <v>90</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
         <v>45526.0128595602</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
         <v>45526.0128595602</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26200</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14">
+        <v>189</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="1">
+      <c r="G14" s="1">
         <v>45526.0128595602</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
         <v>45526.0128595602</v>
       </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>26177</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15">
+        <v>191</v>
+      </c>
+      <c r="D15">
         <v>87</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="1">
+      <c r="G15" s="1">
         <v>45526.012684629597</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
         <v>45526.012684629597</v>
       </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26178</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16">
+        <v>189</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="1">
+      <c r="G16" s="1">
         <v>45526.012684629597</v>
       </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1">
         <v>45526.012684629597</v>
       </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>26179</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17">
+        <v>193</v>
+      </c>
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="1">
+      <c r="G17" s="1">
         <v>45526.012684629597</v>
       </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
         <v>45526.012684629597</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26309</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18">
+        <v>191</v>
+      </c>
+      <c r="D18">
         <v>90</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G18" s="1">
         <v>45646.703979004596</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1">
         <v>45646.703979004596</v>
       </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26192</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19">
+        <v>193</v>
+      </c>
+      <c r="D19">
         <v>33</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="1">
+      <c r="G19" s="1">
         <v>45526.012809479202</v>
       </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1">
         <v>45526.012809479202</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>26193</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20">
+        <v>191</v>
+      </c>
+      <c r="D20">
         <v>40</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="1">
+      <c r="G20" s="1">
         <v>45526.012809479202</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
         <v>45526.012809479202</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26194</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21">
+        <v>189</v>
+      </c>
+      <c r="D21">
         <v>7</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="1">
+      <c r="G21" s="1">
         <v>45526.012809479202</v>
       </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
         <v>45526.012809479202</v>
       </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26195</v>
       </c>
       <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
         <v>212</v>
       </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="1">
+      <c r="G22" s="1">
         <v>45526.012809479202</v>
       </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1">
         <v>45526.012809479202</v>
       </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26189</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23">
+        <v>189</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="1">
+      <c r="G23" s="1">
         <v>45526.012785393497</v>
       </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1">
         <v>45526.012785393497</v>
       </c>
-      <c r="K23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>26190</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24">
+        <v>191</v>
+      </c>
+      <c r="D24">
         <v>62</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="1">
+      <c r="G24" s="1">
         <v>45526.012785393497</v>
       </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1">
         <v>45526.012785393497</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26191</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25">
+        <v>193</v>
+      </c>
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="1">
+      <c r="G25" s="1">
         <v>45526.012785393497</v>
       </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1">
         <v>45526.012785393497</v>
       </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25280</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26">
+        <v>193</v>
+      </c>
+      <c r="D26">
         <v>42</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="1">
+      <c r="G26" s="1">
         <v>45504.017504374999</v>
       </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1">
         <v>45504.017504374999</v>
       </c>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25281</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27">
+        <v>189</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="1">
+      <c r="G27" s="1">
         <v>45504.017504374999</v>
       </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1">
         <v>45504.017504374999</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25291</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28">
+        <v>191</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="1">
+      <c r="G28" s="1">
         <v>45504.017622280102</v>
       </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1">
         <v>45504.017622280102</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25292</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29">
+        <v>189</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="1">
+      <c r="G29" s="1">
         <v>45504.017622280102</v>
       </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1">
         <v>45504.017622280102</v>
       </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26300</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30">
+        <v>191</v>
+      </c>
+      <c r="D30">
         <v>80</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="1">
+      <c r="G30" s="1">
         <v>45646.703839976799</v>
       </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1">
         <v>45646.703839976799</v>
       </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26301</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31">
+        <v>193</v>
+      </c>
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="1">
+      <c r="G31" s="1">
         <v>45646.703839976799</v>
       </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1">
         <v>45646.703839976799</v>
       </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26186</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32">
+        <v>193</v>
+      </c>
+      <c r="D32">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="1">
+      <c r="G32" s="1">
         <v>45526.012761435202</v>
       </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
         <v>45526.012761435202</v>
       </c>
-      <c r="K32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>26187</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33">
+        <v>191</v>
+      </c>
+      <c r="D33">
         <v>29</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="1">
+      <c r="G33" s="1">
         <v>45526.012761435202</v>
       </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1">
         <v>45526.012761435202</v>
       </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>26188</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34">
+        <v>189</v>
+      </c>
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="1">
+      <c r="G34" s="1">
         <v>45526.012761435202</v>
       </c>
-      <c r="I34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1">
         <v>45526.012761435202</v>
       </c>
-      <c r="K34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>26295</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35">
+        <v>193</v>
+      </c>
+      <c r="D35">
         <v>33</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="1">
+      <c r="G35" s="1">
         <v>45646.703769328698</v>
       </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1">
         <v>45646.703769328698</v>
       </c>
-      <c r="K35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>26296</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36">
+        <v>191</v>
+      </c>
+      <c r="D36">
         <v>60</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="1">
+      <c r="G36" s="1">
         <v>45646.703769328698</v>
       </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1">
         <v>45646.703769328698</v>
       </c>
-      <c r="K36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>26223</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37">
+        <v>189</v>
+      </c>
+      <c r="D37">
         <v>8</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="1">
+      <c r="G37" s="1">
         <v>45526.013569838004</v>
       </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1">
         <v>45526.013569838004</v>
       </c>
-      <c r="K37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>26224</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38">
+        <v>191</v>
+      </c>
+      <c r="D38">
         <v>89</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="1">
+      <c r="G38" s="1">
         <v>45526.013569838004</v>
       </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1">
         <v>45526.013569838004</v>
       </c>
-      <c r="K38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>26183</v>
       </c>
       <c r="B39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" t="s">
         <v>230</v>
       </c>
-      <c r="C39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39">
+      <c r="D39">
         <v>6</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="1">
+      <c r="G39" s="1">
         <v>45526.012736828699</v>
       </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1">
         <v>45526.012736828699</v>
       </c>
-      <c r="K39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>26184</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40">
+        <v>193</v>
+      </c>
+      <c r="D40">
         <v>60</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="1">
+      <c r="G40" s="1">
         <v>45526.012736828699</v>
       </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1">
         <v>45526.012736828699</v>
       </c>
-      <c r="K40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>26185</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41">
+        <v>191</v>
+      </c>
+      <c r="D41">
         <v>5</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="1">
+      <c r="G41" s="1">
         <v>45526.012736828699</v>
       </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1">
         <v>45526.012736828699</v>
       </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>26203</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
-      </c>
-      <c r="E42">
+        <v>191</v>
+      </c>
+      <c r="D42">
         <v>90</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="1">
+      <c r="G42" s="1">
         <v>45526.012908854202</v>
       </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="1">
         <v>45526.012908854202</v>
       </c>
-      <c r="K42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>26204</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43">
+        <v>193</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="1">
+      <c r="G43" s="1">
         <v>45526.012908854202</v>
       </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1">
         <v>45526.012908854202</v>
       </c>
-      <c r="K43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>26297</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44">
+        <v>189</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="1">
+      <c r="G44" s="1">
         <v>45646.703809722203</v>
       </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1">
         <v>45646.703809722203</v>
       </c>
-      <c r="K44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>26298</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45">
+        <v>191</v>
+      </c>
+      <c r="D45">
         <v>90</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F45" t="s">
         <v>128</v>
       </c>
-      <c r="H45" s="1">
+      <c r="G45" s="1">
         <v>45646.703809722203</v>
       </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="1">
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1">
         <v>45646.703809722203</v>
       </c>
-      <c r="K45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26299</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46">
+        <v>193</v>
+      </c>
+      <c r="D46">
         <v>10</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s">
         <v>128</v>
       </c>
-      <c r="H46" s="1">
+      <c r="G46" s="1">
         <v>45646.703809722203</v>
       </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="1">
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1">
         <v>45646.703809722203</v>
       </c>
-      <c r="K46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>26205</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E47">
+        <v>191</v>
+      </c>
+      <c r="D47">
         <v>70</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F47" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="1">
+      <c r="G47" s="1">
         <v>45526.012931238402</v>
       </c>
-      <c r="I47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1">
         <v>45526.012931238402</v>
       </c>
-      <c r="K47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>26206</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48">
+        <v>189</v>
+      </c>
+      <c r="D48">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F48" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="1">
+      <c r="G48" s="1">
         <v>45526.012931238402</v>
       </c>
-      <c r="I48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1">
         <v>45526.012931238402</v>
       </c>
-      <c r="K48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>26207</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49">
+        <v>193</v>
+      </c>
+      <c r="D49">
         <v>2</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="1">
+      <c r="G49" s="1">
         <v>45526.012931238402</v>
       </c>
-      <c r="I49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1">
         <v>45526.012931238402</v>
       </c>
-      <c r="K49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>26174</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50">
+        <v>191</v>
+      </c>
+      <c r="D50">
         <v>91</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F50" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="1">
+      <c r="G50" s="1">
         <v>45526.012646388903</v>
       </c>
-      <c r="I50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="1">
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="1">
         <v>45526.012646388903</v>
       </c>
-      <c r="K50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>26175</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51">
+        <v>193</v>
+      </c>
+      <c r="D51">
         <v>7</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="1">
+      <c r="G51" s="1">
         <v>45526.012646388903</v>
       </c>
-      <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="1">
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="1">
         <v>45526.012646388903</v>
       </c>
-      <c r="K51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>26176</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52">
+        <v>189</v>
+      </c>
+      <c r="D52">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="1">
+      <c r="G52" s="1">
         <v>45526.012646388903</v>
       </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="1">
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="1">
         <v>45526.012646388903</v>
       </c>
-      <c r="K52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>26304</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53">
+        <v>193</v>
+      </c>
+      <c r="D53">
         <v>33</v>
       </c>
-      <c r="G53" t="s">
+      <c r="F53" t="s">
         <v>124</v>
       </c>
-      <c r="H53" s="1">
+      <c r="G53" s="1">
         <v>45646.7038953472</v>
       </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="1">
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1">
         <v>45646.7038953472</v>
       </c>
-      <c r="K53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>25270</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54">
+        <v>189</v>
+      </c>
+      <c r="D54">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
+      <c r="F54" t="s">
         <v>120</v>
       </c>
-      <c r="H54" s="1">
+      <c r="G54" s="1">
         <v>45504.017430636603</v>
       </c>
-      <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="1">
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1">
         <v>45504.017430636603</v>
       </c>
-      <c r="K54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>25271</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55">
+        <v>191</v>
+      </c>
+      <c r="D55">
         <v>64</v>
       </c>
-      <c r="G55" t="s">
+      <c r="F55" t="s">
         <v>120</v>
       </c>
-      <c r="H55" s="1">
+      <c r="G55" s="1">
         <v>45504.017430636603</v>
       </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1">
         <v>45504.017430636603</v>
       </c>
-      <c r="K55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>25272</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56">
+        <v>193</v>
+      </c>
+      <c r="D56">
         <v>24</v>
       </c>
-      <c r="G56" t="s">
+      <c r="F56" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="1">
+      <c r="G56" s="1">
         <v>45504.017430636603</v>
       </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="1">
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1">
         <v>45504.017430636603</v>
       </c>
-      <c r="K56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>26227</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
-      </c>
-      <c r="E57">
+        <v>189</v>
+      </c>
+      <c r="D57">
         <v>3</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F57" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="1">
+      <c r="G57" s="1">
         <v>45526.013610034701</v>
       </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="1">
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1">
         <v>45526.013610034701</v>
       </c>
-      <c r="K57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>26302</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58">
+        <v>191</v>
+      </c>
+      <c r="D58">
         <v>80</v>
       </c>
-      <c r="G58" t="s">
+      <c r="F58" t="s">
         <v>117</v>
       </c>
-      <c r="H58" s="1">
+      <c r="G58" s="1">
         <v>45646.703868935198</v>
       </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="1">
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="1">
         <v>45646.703868935198</v>
       </c>
-      <c r="K58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>26303</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59">
+        <v>189</v>
+      </c>
+      <c r="D59">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s">
         <v>117</v>
       </c>
-      <c r="H59" s="1">
+      <c r="G59" s="1">
         <v>45646.703868935198</v>
       </c>
-      <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="1">
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1">
         <v>45646.703868935198</v>
       </c>
-      <c r="K59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>26208</v>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60">
+        <v>189</v>
+      </c>
+      <c r="D60">
         <v>4</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F60" t="s">
         <v>80</v>
       </c>
-      <c r="H60" s="1">
+      <c r="G60" s="1">
         <v>45526.0129530208</v>
       </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="1">
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="1">
         <v>45526.0129530208</v>
       </c>
-      <c r="K60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>26209</v>
       </c>
       <c r="B61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61">
+        <v>191</v>
+      </c>
+      <c r="D61">
         <v>20</v>
       </c>
-      <c r="G61" t="s">
+      <c r="F61" t="s">
         <v>80</v>
       </c>
-      <c r="H61" s="1">
+      <c r="G61" s="1">
         <v>45526.0129530208</v>
       </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="1">
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1">
         <v>45526.0129530208</v>
       </c>
-      <c r="K61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>26210</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
-      </c>
-      <c r="E62">
+        <v>254</v>
+      </c>
+      <c r="D62">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F62" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="1">
+      <c r="G62" s="1">
         <v>45526.0129530208</v>
       </c>
-      <c r="I62" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="1">
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="1">
         <v>45526.0129530208</v>
       </c>
-      <c r="K62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>26211</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63">
+        <v>193</v>
+      </c>
+      <c r="D63">
         <v>35</v>
       </c>
-      <c r="G63" t="s">
+      <c r="F63" t="s">
         <v>80</v>
       </c>
-      <c r="H63" s="1">
+      <c r="G63" s="1">
         <v>45526.0129530208</v>
       </c>
-      <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="1">
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="1">
         <v>45526.0129530208</v>
       </c>
-      <c r="K63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>26220</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
-      </c>
-      <c r="E64">
+        <v>189</v>
+      </c>
+      <c r="D64">
         <v>7</v>
       </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="1">
+      <c r="G64" s="1">
         <v>45526.013550937503</v>
       </c>
-      <c r="I64" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" s="1">
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="1">
         <v>45526.013550937503</v>
       </c>
-      <c r="K64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>26221</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
-      </c>
-      <c r="E65">
+        <v>191</v>
+      </c>
+      <c r="D65">
         <v>80</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s">
         <v>88</v>
       </c>
-      <c r="H65" s="1">
+      <c r="G65" s="1">
         <v>45526.013550937503</v>
       </c>
-      <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="1">
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="1">
         <v>45526.013550937503</v>
       </c>
-      <c r="K65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>26222</v>
       </c>
       <c r="B66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66">
+        <v>193</v>
+      </c>
+      <c r="D66">
         <v>1</v>
       </c>
-      <c r="G66" t="s">
+      <c r="F66" t="s">
         <v>88</v>
       </c>
-      <c r="H66" s="1">
+      <c r="G66" s="1">
         <v>45526.013550937503</v>
       </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" s="1">
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="1">
         <v>45526.013550937503</v>
       </c>
-      <c r="K66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>25273</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67">
+        <v>189</v>
+      </c>
+      <c r="D67">
         <v>7</v>
       </c>
-      <c r="G67" t="s">
+      <c r="F67" t="s">
         <v>92</v>
       </c>
-      <c r="H67" s="1">
+      <c r="G67" s="1">
         <v>45504.017455266199</v>
       </c>
-      <c r="I67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="1">
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1">
         <v>45504.017455266199</v>
       </c>
-      <c r="K67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>25274</v>
       </c>
       <c r="B68" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
-      </c>
-      <c r="E68">
+        <v>193</v>
+      </c>
+      <c r="D68">
         <v>84</v>
       </c>
-      <c r="G68" t="s">
+      <c r="F68" t="s">
         <v>92</v>
       </c>
-      <c r="H68" s="1">
+      <c r="G68" s="1">
         <v>45504.017455266199</v>
       </c>
-      <c r="I68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" s="1">
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1">
         <v>45504.017455266199</v>
       </c>
-      <c r="K68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>25275</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
-      </c>
-      <c r="E69">
+        <v>191</v>
+      </c>
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="G69" t="s">
+      <c r="F69" t="s">
         <v>92</v>
       </c>
-      <c r="H69" s="1">
+      <c r="G69" s="1">
         <v>45504.017455266199</v>
       </c>
-      <c r="I69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" s="1">
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="1">
         <v>45504.017455266199</v>
       </c>
-      <c r="K69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>26212</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70">
+        <v>191</v>
+      </c>
+      <c r="D70">
         <v>92</v>
       </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s">
         <v>95</v>
       </c>
-      <c r="H70" s="1">
+      <c r="G70" s="1">
         <v>45526.013491411999</v>
       </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="1">
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="1">
         <v>45526.013491411999</v>
       </c>
-      <c r="K70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>26213</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
-      </c>
-      <c r="E71">
+        <v>193</v>
+      </c>
+      <c r="D71">
         <v>4</v>
       </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s">
         <v>95</v>
       </c>
-      <c r="H71" s="1">
+      <c r="G71" s="1">
         <v>45526.013491411999</v>
       </c>
-      <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" s="1">
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="1">
         <v>45526.013491411999</v>
       </c>
-      <c r="K71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>26214</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
-      </c>
-      <c r="E72">
+        <v>189</v>
+      </c>
+      <c r="D72">
         <v>1</v>
       </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s">
         <v>95</v>
       </c>
-      <c r="H72" s="1">
+      <c r="G72" s="1">
         <v>45526.013491411999</v>
       </c>
-      <c r="I72" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="1">
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="1">
         <v>45526.013491411999</v>
       </c>
-      <c r="K72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>26225</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
-      </c>
-      <c r="E73">
+        <v>191</v>
+      </c>
+      <c r="D73">
         <v>90</v>
       </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s">
         <v>98</v>
       </c>
-      <c r="H73" s="1">
+      <c r="G73" s="1">
         <v>45526.013588738402</v>
       </c>
-      <c r="I73" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" s="1">
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="1">
         <v>45526.013588738402</v>
       </c>
-      <c r="K73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>26226</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
-      </c>
-      <c r="E74">
+        <v>189</v>
+      </c>
+      <c r="D74">
         <v>1</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F74" t="s">
         <v>98</v>
       </c>
-      <c r="H74" s="1">
+      <c r="G74" s="1">
         <v>45526.013588738402</v>
       </c>
-      <c r="I74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" s="1">
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="1">
         <v>45526.013588738402</v>
       </c>
-      <c r="K74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>25267</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
-      </c>
-      <c r="E75">
+        <v>189</v>
+      </c>
+      <c r="D75">
         <v>1</v>
       </c>
-      <c r="G75" t="s">
+      <c r="F75" t="s">
         <v>103</v>
       </c>
-      <c r="H75" s="1">
+      <c r="G75" s="1">
         <v>45504.017404826402</v>
       </c>
-      <c r="I75" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="1">
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="1">
         <v>45504.017404826402</v>
       </c>
-      <c r="K75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>25268</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76">
+        <v>191</v>
+      </c>
+      <c r="D76">
         <v>46</v>
       </c>
-      <c r="G76" t="s">
+      <c r="F76" t="s">
         <v>103</v>
       </c>
-      <c r="H76" s="1">
+      <c r="G76" s="1">
         <v>45504.017404826402</v>
       </c>
-      <c r="I76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="1">
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="1">
         <v>45504.017404826402</v>
       </c>
-      <c r="K76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>25269</v>
       </c>
       <c r="B77" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77">
+        <v>193</v>
+      </c>
+      <c r="D77">
         <v>45</v>
       </c>
-      <c r="G77" t="s">
+      <c r="F77" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="1">
+      <c r="G77" s="1">
         <v>45504.017404826402</v>
       </c>
-      <c r="I77" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" s="1">
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="1">
         <v>45504.017404826402</v>
       </c>
-      <c r="K77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>26201</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
-      </c>
-      <c r="E78">
+        <v>193</v>
+      </c>
+      <c r="D78">
         <v>70</v>
       </c>
-      <c r="G78" t="s">
+      <c r="F78" t="s">
         <v>112</v>
       </c>
-      <c r="H78" s="1">
+      <c r="G78" s="1">
         <v>45526.012883645803</v>
       </c>
-      <c r="I78" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" s="1">
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="1">
         <v>45526.012883645803</v>
       </c>
-      <c r="K78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>26202</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
-      </c>
-      <c r="E79">
+        <v>189</v>
+      </c>
+      <c r="D79">
         <v>10</v>
       </c>
-      <c r="G79" t="s">
+      <c r="F79" t="s">
         <v>112</v>
       </c>
-      <c r="H79" s="1">
+      <c r="G79" s="1">
         <v>45526.012883645803</v>
       </c>
-      <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" s="1">
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="1">
         <v>45526.012883645803</v>
       </c>
-      <c r="K79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>26182</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
-      </c>
-      <c r="E80">
+        <v>189</v>
+      </c>
+      <c r="D80">
         <v>1</v>
       </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="1">
+      <c r="G80" s="1">
         <v>45526.012710925897</v>
       </c>
-      <c r="I80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="1">
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1">
         <v>45526.012710925897</v>
       </c>
-      <c r="K80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>26181</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
-      </c>
-      <c r="E81">
+        <v>193</v>
+      </c>
+      <c r="D81">
         <v>20</v>
       </c>
-      <c r="G81" t="s">
+      <c r="F81" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="1">
+      <c r="G81" s="1">
         <v>45526.012710925897</v>
       </c>
-      <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" s="1">
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="1">
         <v>45526.012710925897</v>
       </c>
-      <c r="K81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>26180</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
-      </c>
-      <c r="E82">
+        <v>191</v>
+      </c>
+      <c r="D82">
         <v>53</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="1">
+      <c r="G82" s="1">
         <v>45526.012710925897</v>
       </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" s="1">
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="1">
         <v>45526.012710925897</v>
       </c>
-      <c r="K82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>26306</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
-      </c>
-      <c r="E83">
+        <v>189</v>
+      </c>
+      <c r="D83">
         <v>2</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F83" t="s">
         <v>158</v>
       </c>
-      <c r="H83" s="1">
+      <c r="G83" s="1">
         <v>45646.703920682899</v>
       </c>
-      <c r="I83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" s="1">
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="1">
         <v>45646.703920682899</v>
       </c>
-      <c r="K83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>26305</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
-      </c>
-      <c r="E84">
+        <v>191</v>
+      </c>
+      <c r="D84">
         <v>55</v>
       </c>
-      <c r="G84" t="s">
+      <c r="F84" t="s">
         <v>158</v>
       </c>
-      <c r="H84" s="1">
+      <c r="G84" s="1">
         <v>45646.703920682899</v>
       </c>
-      <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="1">
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="1">
         <v>45646.703920682899</v>
       </c>
-      <c r="K84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>26308</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85">
+        <v>189</v>
+      </c>
+      <c r="D85">
         <v>1</v>
       </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s">
         <v>163</v>
       </c>
-      <c r="H85" s="1">
+      <c r="G85" s="1">
         <v>45646.703951469899</v>
       </c>
-      <c r="I85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" s="1">
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="1">
         <v>45646.703951469899</v>
       </c>
-      <c r="K85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>26307</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86">
+        <v>191</v>
+      </c>
+      <c r="D86">
         <v>96</v>
       </c>
-      <c r="G86" t="s">
+      <c r="F86" t="s">
         <v>163</v>
       </c>
-      <c r="H86" s="1">
+      <c r="G86" s="1">
         <v>45646.703951469899</v>
       </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" s="1">
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="1">
         <v>45646.703951469899</v>
       </c>
-      <c r="K86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>25290</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
-      </c>
-      <c r="E87">
+        <v>191</v>
+      </c>
+      <c r="D87">
         <v>30</v>
       </c>
-      <c r="G87" t="s">
+      <c r="F87" t="s">
         <v>167</v>
       </c>
-      <c r="H87" s="1">
+      <c r="G87" s="1">
         <v>45504.017598993101</v>
       </c>
-      <c r="I87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" s="1">
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="1">
         <v>45504.017598993101</v>
       </c>
-      <c r="K87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>25279</v>
       </c>
       <c r="B88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C88" t="s">
-        <v>283</v>
-      </c>
-      <c r="E88">
+        <v>281</v>
+      </c>
+      <c r="D88">
         <v>1</v>
       </c>
-      <c r="G88" t="s">
+      <c r="F88" t="s">
         <v>169</v>
       </c>
-      <c r="H88" s="1">
+      <c r="G88" s="1">
         <v>45504.0174794907</v>
       </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" s="1">
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="1">
         <v>45504.0174794907</v>
       </c>
-      <c r="K88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>25278</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C89" t="s">
-        <v>192</v>
-      </c>
-      <c r="E89">
+        <v>191</v>
+      </c>
+      <c r="D89">
         <v>5</v>
       </c>
-      <c r="G89" t="s">
+      <c r="F89" t="s">
         <v>169</v>
       </c>
-      <c r="H89" s="1">
+      <c r="G89" s="1">
         <v>45504.0174794907</v>
       </c>
-      <c r="I89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" s="1">
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="1">
         <v>45504.0174794907</v>
       </c>
-      <c r="K89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>25277</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
-      </c>
-      <c r="E90">
+        <v>193</v>
+      </c>
+      <c r="D90">
         <v>55</v>
       </c>
-      <c r="G90" t="s">
+      <c r="F90" t="s">
         <v>169</v>
       </c>
-      <c r="H90" s="1">
+      <c r="G90" s="1">
         <v>45504.0174794907</v>
       </c>
-      <c r="I90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" s="1">
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="1">
         <v>45504.0174794907</v>
       </c>
-      <c r="K90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>25276</v>
       </c>
       <c r="B91" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
-      </c>
-      <c r="E91">
+        <v>189</v>
+      </c>
+      <c r="D91">
         <v>3</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F91" t="s">
         <v>169</v>
       </c>
-      <c r="H91" s="1">
+      <c r="G91" s="1">
         <v>45504.0174794907</v>
       </c>
-      <c r="I91" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" s="1">
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="1">
         <v>45504.0174794907</v>
       </c>
-      <c r="K91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>26198</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
-      </c>
-      <c r="E92">
+        <v>189</v>
+      </c>
+      <c r="D92">
         <v>3</v>
       </c>
-      <c r="G92" t="s">
+      <c r="F92" t="s">
         <v>172</v>
       </c>
-      <c r="H92" s="1">
+      <c r="G92" s="1">
         <v>45526.012834560199</v>
       </c>
-      <c r="I92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" s="1">
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="1">
         <v>45526.012834560199</v>
       </c>
-      <c r="K92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>26197</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93">
+        <v>193</v>
+      </c>
+      <c r="D93">
         <v>2</v>
       </c>
-      <c r="G93" t="s">
+      <c r="F93" t="s">
         <v>172</v>
       </c>
-      <c r="H93" s="1">
+      <c r="G93" s="1">
         <v>45526.012834560199</v>
       </c>
-      <c r="I93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" s="1">
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="1">
         <v>45526.012834560199</v>
       </c>
-      <c r="K93" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>26196</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
-      </c>
-      <c r="E94">
+        <v>191</v>
+      </c>
+      <c r="D94">
         <v>90</v>
       </c>
-      <c r="G94" t="s">
+      <c r="F94" t="s">
         <v>172</v>
       </c>
-      <c r="H94" s="1">
+      <c r="G94" s="1">
         <v>45526.012834560199</v>
       </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" s="1">
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="1">
         <v>45526.012834560199</v>
       </c>
-      <c r="K94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>26219</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
-      </c>
-      <c r="E95">
+        <v>189</v>
+      </c>
+      <c r="D95">
         <v>1</v>
       </c>
-      <c r="G95" t="s">
+      <c r="F95" t="s">
         <v>177</v>
       </c>
-      <c r="H95" s="1">
+      <c r="G95" s="1">
         <v>45526.013533703699</v>
       </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" s="1">
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="1">
         <v>45526.013533703699</v>
       </c>
-      <c r="K95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>26218</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
-      </c>
-      <c r="E96">
+        <v>191</v>
+      </c>
+      <c r="D96">
         <v>99</v>
       </c>
-      <c r="G96" t="s">
+      <c r="F96" t="s">
         <v>177</v>
       </c>
-      <c r="H96" s="1">
+      <c r="G96" s="1">
         <v>45526.013533703699</v>
       </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" s="1">
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="1">
         <v>45526.013533703699</v>
       </c>
-      <c r="K96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>26241</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97">
+        <v>193</v>
+      </c>
+      <c r="D97">
         <v>27</v>
       </c>
-      <c r="G97" t="s">
+      <c r="F97" t="s">
         <v>107</v>
       </c>
-      <c r="H97" s="1">
+      <c r="G97" s="1">
         <v>45526.013689583298</v>
       </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" s="1">
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="1">
         <v>45526.013689583298</v>
       </c>
-      <c r="K97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>26240</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C98" t="s">
-        <v>192</v>
-      </c>
-      <c r="E98">
+        <v>191</v>
+      </c>
+      <c r="D98">
         <v>10</v>
       </c>
-      <c r="G98" t="s">
+      <c r="F98" t="s">
         <v>107</v>
       </c>
-      <c r="H98" s="1">
+      <c r="G98" s="1">
         <v>45526.013689583298</v>
       </c>
-      <c r="I98" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" s="1">
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="1">
         <v>45526.013689583298</v>
       </c>
-      <c r="K98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>26239</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
-      </c>
-      <c r="E99">
+        <v>189</v>
+      </c>
+      <c r="D99">
         <v>1</v>
       </c>
-      <c r="G99" t="s">
+      <c r="F99" t="s">
         <v>107</v>
       </c>
-      <c r="H99" s="1">
+      <c r="G99" s="1">
         <v>45526.013689583298</v>
       </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" s="1">
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="1">
         <v>45526.013689583298</v>
       </c>
-      <c r="K99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>26230</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
-      </c>
-      <c r="E100">
+        <v>191</v>
+      </c>
+      <c r="D100">
         <v>2</v>
       </c>
-      <c r="G100" t="s">
+      <c r="F100" t="s">
         <v>76</v>
       </c>
-      <c r="H100" s="1">
+      <c r="G100" s="1">
         <v>45526.013610034701</v>
       </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" s="1">
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="1">
         <v>45526.013610034701</v>
       </c>
-      <c r="K100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>26229</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
-        <v>283</v>
-      </c>
-      <c r="E101">
+        <v>281</v>
+      </c>
+      <c r="D101">
         <v>1</v>
       </c>
-      <c r="G101" t="s">
+      <c r="F101" t="s">
         <v>76</v>
       </c>
-      <c r="H101" s="1">
+      <c r="G101" s="1">
         <v>45526.013610034701</v>
       </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" s="1">
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="1">
         <v>45526.013610034701</v>
       </c>
-      <c r="K101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>26228</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
-      </c>
-      <c r="E102">
+        <v>193</v>
+      </c>
+      <c r="D102">
         <v>58</v>
       </c>
-      <c r="G102" t="s">
+      <c r="F102" t="s">
         <v>76</v>
       </c>
-      <c r="H102" s="1">
+      <c r="G102" s="1">
         <v>45526.013610034701</v>
       </c>
-      <c r="I102" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102" s="1">
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="1">
         <v>45526.013610034701</v>
       </c>
-      <c r="K102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>26244</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
-      </c>
-      <c r="E103">
+        <v>191</v>
+      </c>
+      <c r="D103">
         <v>1</v>
       </c>
-      <c r="G103" t="s">
+      <c r="F103" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="1">
+      <c r="G103" s="1">
         <v>45526.0137113889</v>
       </c>
-      <c r="I103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103" s="1">
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="1">
         <v>45526.0137113889</v>
       </c>
-      <c r="K103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>26243</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
-      </c>
-      <c r="E104">
+        <v>189</v>
+      </c>
+      <c r="D104">
         <v>8</v>
       </c>
-      <c r="G104" t="s">
+      <c r="F104" t="s">
         <v>69</v>
       </c>
-      <c r="H104" s="1">
+      <c r="G104" s="1">
         <v>45526.0137113889</v>
       </c>
-      <c r="I104" t="s">
-        <v>14</v>
-      </c>
-      <c r="J104" s="1">
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="1">
         <v>45526.0137113889</v>
       </c>
-      <c r="K104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>26242</v>
       </c>
       <c r="B105" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E105">
+        <v>193</v>
+      </c>
+      <c r="D105">
         <v>77</v>
       </c>
-      <c r="G105" t="s">
+      <c r="F105" t="s">
         <v>69</v>
       </c>
-      <c r="H105" s="1">
+      <c r="G105" s="1">
         <v>45526.0137113889</v>
       </c>
-      <c r="I105" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" s="1">
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="1">
         <v>45526.0137113889</v>
       </c>
-      <c r="K105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>26246</v>
       </c>
       <c r="B106" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
-      </c>
-      <c r="E106">
+        <v>189</v>
+      </c>
+      <c r="D106">
         <v>1</v>
       </c>
-      <c r="G106" t="s">
+      <c r="F106" t="s">
         <v>51</v>
       </c>
-      <c r="H106" s="1">
+      <c r="G106" s="1">
         <v>45526.013729085702</v>
       </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" s="1">
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="1">
         <v>45526.013729085702</v>
       </c>
-      <c r="K106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>26245</v>
       </c>
       <c r="B107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
-      </c>
-      <c r="E107">
+        <v>193</v>
+      </c>
+      <c r="D107">
         <v>15</v>
       </c>
-      <c r="G107" t="s">
+      <c r="F107" t="s">
         <v>51</v>
       </c>
-      <c r="H107" s="1">
+      <c r="G107" s="1">
         <v>45526.013729085702</v>
       </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" s="1">
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="1">
         <v>45526.013729085702</v>
       </c>
-      <c r="K107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>26233</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s">
-        <v>192</v>
-      </c>
-      <c r="E108">
+        <v>191</v>
+      </c>
+      <c r="D108">
         <v>2</v>
       </c>
-      <c r="G108" t="s">
+      <c r="F108" t="s">
         <v>47</v>
       </c>
-      <c r="H108" s="1">
+      <c r="G108" s="1">
         <v>45526.013631990703</v>
       </c>
-      <c r="I108" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" s="1">
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="1">
         <v>45526.013631990703</v>
       </c>
-      <c r="K108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>26232</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
-      </c>
-      <c r="E109">
+        <v>193</v>
+      </c>
+      <c r="D109">
         <v>81</v>
       </c>
-      <c r="G109" t="s">
+      <c r="F109" t="s">
         <v>47</v>
       </c>
-      <c r="H109" s="1">
+      <c r="G109" s="1">
         <v>45526.013631990703</v>
       </c>
-      <c r="I109" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" s="1">
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="1">
         <v>45526.013631990703</v>
       </c>
-      <c r="K109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>26231</v>
       </c>
       <c r="B110" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
-      </c>
-      <c r="E110">
+        <v>189</v>
+      </c>
+      <c r="D110">
         <v>4</v>
       </c>
-      <c r="G110" t="s">
+      <c r="F110" t="s">
         <v>47</v>
       </c>
-      <c r="H110" s="1">
+      <c r="G110" s="1">
         <v>45526.013631990703</v>
       </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" s="1">
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="1">
         <v>45526.013631990703</v>
       </c>
-      <c r="K110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>26238</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
-      </c>
-      <c r="E111">
+        <v>191</v>
+      </c>
+      <c r="D111">
         <v>55</v>
       </c>
-      <c r="G111" t="s">
+      <c r="F111" t="s">
         <v>29</v>
       </c>
-      <c r="H111" s="1">
+      <c r="G111" s="1">
         <v>45526.013669583299</v>
       </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" s="1">
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="1">
         <v>45526.013669583299</v>
       </c>
-      <c r="K111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>26237</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C112" t="s">
-        <v>190</v>
-      </c>
-      <c r="E112">
+        <v>189</v>
+      </c>
+      <c r="D112">
         <v>2</v>
       </c>
-      <c r="G112" t="s">
+      <c r="F112" t="s">
         <v>29</v>
       </c>
-      <c r="H112" s="1">
+      <c r="G112" s="1">
         <v>45526.013669583299</v>
       </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" s="1">
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="1">
         <v>45526.013669583299</v>
       </c>
-      <c r="K112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>26236</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
-      </c>
-      <c r="E113">
+        <v>212</v>
+      </c>
+      <c r="D113">
         <v>1</v>
       </c>
-      <c r="G113" t="s">
+      <c r="F113" t="s">
         <v>22</v>
       </c>
-      <c r="H113" s="1">
+      <c r="G113" s="1">
         <v>45526.013651076399</v>
       </c>
-      <c r="I113" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" s="1">
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="1">
         <v>45526.013651076399</v>
       </c>
-      <c r="K113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>26235</v>
       </c>
       <c r="B114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
-      </c>
-      <c r="E114">
+        <v>193</v>
+      </c>
+      <c r="D114">
         <v>72</v>
       </c>
-      <c r="G114" t="s">
+      <c r="F114" t="s">
         <v>22</v>
       </c>
-      <c r="H114" s="1">
+      <c r="G114" s="1">
         <v>45526.013651076399</v>
       </c>
-      <c r="I114" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" s="1">
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="1">
         <v>45526.013651076399</v>
       </c>
-      <c r="K114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>26234</v>
       </c>
       <c r="B115" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
-      </c>
-      <c r="E115">
+        <v>189</v>
+      </c>
+      <c r="D115">
         <v>5</v>
       </c>
-      <c r="G115" t="s">
+      <c r="F115" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="1">
+      <c r="G115" s="1">
         <v>45526.013651076399</v>
       </c>
-      <c r="I115" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" s="1">
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" s="1">
         <v>45526.013651076399</v>
       </c>
-      <c r="K115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>24705</v>
       </c>
       <c r="B116" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
-      </c>
-      <c r="E116">
+        <v>189</v>
+      </c>
+      <c r="D116">
         <v>35</v>
       </c>
-      <c r="G116" t="s">
+      <c r="F116" t="s">
         <v>85</v>
       </c>
-      <c r="H116" s="1">
+      <c r="G116" s="1">
         <v>45499.005338715302</v>
       </c>
-      <c r="I116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" s="1">
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="1">
         <v>45499.005338715302</v>
       </c>
-      <c r="K116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>24704</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C117" t="s">
-        <v>194</v>
-      </c>
-      <c r="E117">
+        <v>193</v>
+      </c>
+      <c r="D117">
         <v>45</v>
       </c>
-      <c r="G117" t="s">
+      <c r="F117" t="s">
         <v>85</v>
       </c>
-      <c r="H117" s="1">
+      <c r="G117" s="1">
         <v>45499.005338715302</v>
       </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" s="1">
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="1">
         <v>45499.005338715302</v>
       </c>
-      <c r="K117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>24713</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
-      </c>
-      <c r="E118">
+        <v>312</v>
+      </c>
+      <c r="D118">
         <v>1</v>
       </c>
-      <c r="G118" t="s">
+      <c r="F118" t="s">
         <v>181</v>
       </c>
-      <c r="H118" s="1">
+      <c r="G118" s="1">
         <v>45499.005360393501</v>
       </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" s="1">
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="1">
         <v>45499.005360393501</v>
       </c>
-      <c r="K118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>24712</v>
       </c>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C119" t="s">
-        <v>192</v>
-      </c>
-      <c r="E119">
+        <v>191</v>
+      </c>
+      <c r="D119">
         <v>50</v>
       </c>
-      <c r="G119" t="s">
+      <c r="F119" t="s">
         <v>181</v>
       </c>
-      <c r="H119" s="1">
+      <c r="G119" s="1">
         <v>45499.005360393501</v>
       </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" s="1">
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="1">
         <v>45499.005360393501</v>
       </c>
-      <c r="K119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>24711</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C120" t="s">
-        <v>190</v>
-      </c>
-      <c r="E120">
+        <v>189</v>
+      </c>
+      <c r="D120">
         <v>16</v>
       </c>
-      <c r="G120" t="s">
+      <c r="F120" t="s">
         <v>181</v>
       </c>
-      <c r="H120" s="1">
+      <c r="G120" s="1">
         <v>45499.005360393501</v>
       </c>
-      <c r="I120" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120" s="1">
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="1">
         <v>45499.005360393501</v>
       </c>
-      <c r="K120" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>24699</v>
       </c>
       <c r="B121" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C121" t="s">
-        <v>190</v>
-      </c>
-      <c r="E121">
+        <v>189</v>
+      </c>
+      <c r="D121">
         <v>1</v>
       </c>
-      <c r="G121" t="s">
+      <c r="F121" t="s">
         <v>133</v>
       </c>
-      <c r="H121" s="1">
+      <c r="G121" s="1">
         <v>45499.005316331</v>
       </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" s="1">
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="1">
         <v>45499.005316331</v>
       </c>
-      <c r="K121" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>24698</v>
       </c>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
-        <v>192</v>
-      </c>
-      <c r="E122">
+        <v>191</v>
+      </c>
+      <c r="D122">
         <v>85</v>
       </c>
-      <c r="G122" t="s">
+      <c r="F122" t="s">
         <v>133</v>
       </c>
-      <c r="H122" s="1">
+      <c r="G122" s="1">
         <v>45499.005316331</v>
       </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" s="1">
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="1">
         <v>45499.005316331</v>
       </c>
-      <c r="K122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>24697</v>
       </c>
       <c r="B123" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C123" t="s">
-        <v>194</v>
-      </c>
-      <c r="E123">
+        <v>193</v>
+      </c>
+      <c r="D123">
         <v>20</v>
       </c>
-      <c r="G123" t="s">
+      <c r="F123" t="s">
         <v>133</v>
       </c>
-      <c r="H123" s="1">
+      <c r="G123" s="1">
         <v>45499.005316331</v>
       </c>
-      <c r="I123" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" s="1">
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="1">
         <v>45499.005316331</v>
       </c>
-      <c r="K123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>24735</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
-      </c>
-      <c r="E124">
+        <v>191</v>
+      </c>
+      <c r="D124">
         <v>80</v>
       </c>
-      <c r="G124" t="s">
+      <c r="F124" t="s">
         <v>179</v>
       </c>
-      <c r="H124" s="1">
+      <c r="G124" s="1">
         <v>45499.0057626505</v>
       </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" s="1">
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="1">
         <v>45499.0057626505</v>
       </c>
-      <c r="K124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24734</v>
       </c>
       <c r="B125" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C125" t="s">
-        <v>194</v>
-      </c>
-      <c r="E125">
+        <v>193</v>
+      </c>
+      <c r="D125">
         <v>20</v>
       </c>
-      <c r="G125" t="s">
+      <c r="F125" t="s">
         <v>179</v>
       </c>
-      <c r="H125" s="1">
+      <c r="G125" s="1">
         <v>45499.0057626505</v>
       </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" s="1">
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="1">
         <v>45499.0057626505</v>
       </c>
-      <c r="K125" t="s">
+      <c r="J125" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8732,10 +8730,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -8758,7 +8756,7 @@
         <v>8558</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8784,7 +8782,7 @@
         <v>8598</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -8810,7 +8808,7 @@
         <v>8571</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8836,7 +8834,7 @@
         <v>8557</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -8862,7 +8860,7 @@
         <v>8564</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8888,7 +8886,7 @@
         <v>8578</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8914,7 +8912,7 @@
         <v>8599</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8940,7 +8938,7 @@
         <v>8565</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -8966,7 +8964,7 @@
         <v>8554</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -8992,7 +8990,7 @@
         <v>8602</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9018,7 +9016,7 @@
         <v>8243</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9044,7 +9042,7 @@
         <v>8573</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9070,7 +9068,7 @@
         <v>8601</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9096,7 +9094,7 @@
         <v>8566</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -9122,7 +9120,7 @@
         <v>8570</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -9148,7 +9146,7 @@
         <v>8244</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9174,7 +9172,7 @@
         <v>8567</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -9200,7 +9198,7 @@
         <v>8572</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -9226,7 +9224,7 @@
         <v>8242</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -9252,7 +9250,7 @@
         <v>8577</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -9278,7 +9276,7 @@
         <v>8563</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -9304,7 +9302,7 @@
         <v>8600</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -9330,7 +9328,7 @@
         <v>8251</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -9356,7 +9354,7 @@
         <v>8246</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -9382,7 +9380,7 @@
         <v>8559</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -9408,7 +9406,7 @@
         <v>8579</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -9434,7 +9432,7 @@
         <v>8574</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -9460,7 +9458,7 @@
         <v>8560</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -9486,7 +9484,7 @@
         <v>8605</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -9512,7 +9510,7 @@
         <v>8555</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -9538,7 +9536,7 @@
         <v>8562</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -9564,7 +9562,7 @@
         <v>8249</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -9590,7 +9588,7 @@
         <v>8576</v>
       </c>
       <c r="B34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -9616,7 +9614,7 @@
         <v>8248</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9642,7 +9640,7 @@
         <v>8568</v>
       </c>
       <c r="B36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -9668,7 +9666,7 @@
         <v>8247</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -9694,7 +9692,7 @@
         <v>8575</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -9720,7 +9718,7 @@
         <v>8556</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -9746,7 +9744,7 @@
         <v>8603</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -9772,7 +9770,7 @@
         <v>8604</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -9798,7 +9796,7 @@
         <v>8250</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -9824,7 +9822,7 @@
         <v>8245</v>
       </c>
       <c r="B43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -9850,7 +9848,7 @@
         <v>8561</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -9876,7 +9874,7 @@
         <v>8569</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -9902,7 +9900,7 @@
         <v>8003</v>
       </c>
       <c r="B46" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9928,7 +9926,7 @@
         <v>8000</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -9954,7 +9952,7 @@
         <v>8024</v>
       </c>
       <c r="B48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -9980,7 +9978,7 @@
         <v>8005</v>
       </c>
       <c r="B49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -10022,16 +10020,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" t="s">
         <v>372</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>373</v>
-      </c>
-      <c r="E1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F1" t="s">
-        <v>375</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -10054,7 +10052,7 @@
         <v>8620</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -10080,7 +10078,7 @@
         <v>8634</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10106,7 +10104,7 @@
         <v>8629</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -10132,7 +10130,7 @@
         <v>8624</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10158,7 +10156,7 @@
         <v>8627</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -10184,7 +10182,7 @@
         <v>8623</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10210,7 +10208,7 @@
         <v>8658</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10236,7 +10234,7 @@
         <v>8630</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -10262,7 +10260,7 @@
         <v>8659</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -10288,7 +10286,7 @@
         <v>8611</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -10314,7 +10312,7 @@
         <v>8622</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -10340,7 +10338,7 @@
         <v>8656</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -10366,7 +10364,7 @@
         <v>8635</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -10392,7 +10390,7 @@
         <v>8621</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -10418,7 +10416,7 @@
         <v>8614</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -10444,7 +10442,7 @@
         <v>8628</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -10470,7 +10468,7 @@
         <v>8655</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -10496,7 +10494,7 @@
         <v>8615</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -10522,7 +10520,7 @@
         <v>8657</v>
       </c>
       <c r="B20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -10548,7 +10546,7 @@
         <v>8616</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -10574,7 +10572,7 @@
         <v>8636</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -10600,7 +10598,7 @@
         <v>8631</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -10626,7 +10624,7 @@
         <v>8617</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -10652,7 +10650,7 @@
         <v>8662</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -10678,7 +10676,7 @@
         <v>8612</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -10704,7 +10702,7 @@
         <v>8619</v>
       </c>
       <c r="B27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -10730,7 +10728,7 @@
         <v>8633</v>
       </c>
       <c r="B28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -10756,7 +10754,7 @@
         <v>8625</v>
       </c>
       <c r="B29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -10782,7 +10780,7 @@
         <v>8632</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -10808,7 +10806,7 @@
         <v>8613</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -10834,7 +10832,7 @@
         <v>8660</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -10860,7 +10858,7 @@
         <v>8661</v>
       </c>
       <c r="B33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -10886,7 +10884,7 @@
         <v>8618</v>
       </c>
       <c r="B34" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -10912,7 +10910,7 @@
         <v>8626</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -10938,7 +10936,7 @@
         <v>8286</v>
       </c>
       <c r="B36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -10964,7 +10962,7 @@
         <v>8288</v>
       </c>
       <c r="B37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -10990,7 +10988,7 @@
         <v>8044</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -11016,7 +11014,7 @@
         <v>8066</v>
       </c>
       <c r="B39" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -11042,7 +11040,7 @@
         <v>8287</v>
       </c>
       <c r="B40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -11068,7 +11066,7 @@
         <v>8047</v>
       </c>
       <c r="B41" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -11094,7 +11092,7 @@
         <v>8042</v>
       </c>
       <c r="B42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -11120,7 +11118,7 @@
         <v>8295</v>
       </c>
       <c r="B43" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -11146,7 +11144,7 @@
         <v>8290</v>
       </c>
       <c r="B44" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -11172,7 +11170,7 @@
         <v>8293</v>
       </c>
       <c r="B45" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -11198,7 +11196,7 @@
         <v>8292</v>
       </c>
       <c r="B46" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -11224,7 +11222,7 @@
         <v>8291</v>
       </c>
       <c r="B47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -11250,7 +11248,7 @@
         <v>8294</v>
       </c>
       <c r="B48" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -11276,7 +11274,7 @@
         <v>8289</v>
       </c>
       <c r="B49" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -11306,7 +11304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -11317,1323 +11315,1323 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1" t="s">
         <v>424</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>425</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>426</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>427</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>428</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>429</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>430</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>431</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>432</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>433</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>434</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>435</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>436</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>437</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>101</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
         <v>438</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="C4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>67</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>97</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>106</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>89</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>96</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>69</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>18</v>
+      </c>
+      <c r="Q13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>81</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>92</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" t="s">
+        <v>447</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>87</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>439</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>64</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" t="s">
         <v>448</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>93</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>439</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>97</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" t="s">
+        <v>448</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>439</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="I20">
+        <v>54</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>57</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>15</v>
+      </c>
+      <c r="Q20">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>439</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>85</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22" t="s">
+        <v>448</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>439</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>46</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="K22">
+        <v>33</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J23">
         <v>3</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K23">
         <v>101</v>
       </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" t="s">
+        <v>448</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>439</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>81</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" t="s">
+        <v>448</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
         <v>1</v>
       </c>
-      <c r="Q2" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>100</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>67</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>8</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2">
-        <v>97</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="K6" s="2">
-        <v>99</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F7" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>80</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2">
-        <v>106</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>100</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
-        <v>99</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>89</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2">
-        <v>14</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
-        <v>96</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F13" s="2">
-        <v>18</v>
-      </c>
-      <c r="G13" s="2">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2">
-        <v>69</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>12</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2">
-        <v>16</v>
-      </c>
-      <c r="J14" s="2">
-        <v>4</v>
-      </c>
-      <c r="K14" s="2">
-        <v>81</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2">
-        <v>92</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2">
-        <v>8</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3</v>
-      </c>
-      <c r="K16" s="2">
-        <v>87</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F17" s="2">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2">
-        <v>64</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>17</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2">
-        <v>93</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D19" s="2">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>3</v>
-      </c>
-      <c r="I19" s="2">
-        <v>11</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>97</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F20" s="2">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>4</v>
-      </c>
-      <c r="I20" s="2">
-        <v>54</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2">
-        <v>57</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>5</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>10</v>
       </c>
-      <c r="H21" s="2">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>9</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>85</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>10</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>30</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3</v>
-      </c>
-      <c r="I22" s="2">
-        <v>46</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>33</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>30</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>3</v>
-      </c>
-      <c r="K23" s="2">
-        <v>101</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>21</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2">
-        <v>81</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D25" s="2">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2">
-        <v>16</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>90</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>10</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>116</v>
       </c>
     </row>
